--- a/output/3Y_P11_KFSDIV.xlsx
+++ b/output/3Y_P11_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -985,7 +988,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.0875</v>
@@ -1029,7 +1032,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-14</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.1692</v>
@@ -1079,7 +1082,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-13</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>11.0872</v>
@@ -1129,7 +1132,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-12</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>11.0976</v>
@@ -1179,7 +1182,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-11</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.8505</v>
@@ -1229,7 +1232,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-10</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>11.8576</v>
@@ -1279,7 +1282,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-9</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.5699</v>
@@ -1329,7 +1332,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.5994</v>
@@ -1379,7 +1382,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-7</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>14.6663</v>
@@ -1429,7 +1432,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-6</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>14.701</v>
@@ -1479,7 +1482,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-5</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.8109</v>
@@ -1529,7 +1532,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-4</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.9322</v>
@@ -1579,7 +1582,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-3</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.5846</v>
@@ -1629,7 +1632,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-2</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>12.2867</v>
@@ -1679,7 +1682,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.0645</v>
@@ -1729,7 +1732,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.8083</v>
@@ -1779,7 +1782,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.5636</v>
@@ -1829,7 +1832,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.1788</v>
@@ -1879,7 +1882,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>14.5668</v>
@@ -1929,7 +1932,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.962</v>
@@ -1979,7 +1982,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>12.2659</v>
@@ -2029,7 +2032,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>12.4103</v>
@@ -2079,7 +2082,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>12.3976</v>
@@ -2129,7 +2132,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>12.9013</v>
@@ -2179,7 +2182,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.3527</v>
@@ -2229,7 +2232,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.8804</v>
@@ -2279,7 +2282,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>14.6268</v>
@@ -2329,7 +2332,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>15.3636</v>
@@ -2379,7 +2382,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>13.8711</v>
@@ -2429,7 +2432,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>14.1252</v>
@@ -2479,7 +2482,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>14.1934</v>
@@ -2529,7 +2532,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>14.1176</v>
@@ -2579,7 +2582,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>15.3311</v>
@@ -2629,7 +2632,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>15.3637</v>
@@ -2679,7 +2682,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>14.6447</v>
@@ -2729,7 +2732,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>15.486</v>
@@ -2779,7 +2782,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>16.1958</v>
@@ -2914,7 +2917,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.0875</v>
@@ -2961,7 +2964,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-14</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.1692</v>
@@ -3014,7 +3017,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-13</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>11.0872</v>
@@ -3067,7 +3070,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-12</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>11.0976</v>
@@ -3120,7 +3123,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-11</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.8505</v>
@@ -3173,7 +3176,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-10</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>11.8576</v>
@@ -3226,7 +3229,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-9</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.5699</v>
@@ -3279,7 +3282,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.5994</v>
@@ -3332,7 +3335,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-7</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>14.6663</v>
@@ -3385,7 +3388,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-6</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>14.701</v>
@@ -3438,7 +3441,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-5</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.8109</v>
@@ -3491,7 +3494,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-4</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.9322</v>
@@ -3544,7 +3547,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-3</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.5846</v>
@@ -3597,7 +3600,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-2</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>12.2867</v>
@@ -3650,7 +3653,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.0645</v>
@@ -3703,7 +3706,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.8083</v>
@@ -3756,7 +3759,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.5636</v>
@@ -3809,7 +3812,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.1788</v>
@@ -3862,7 +3865,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>14.5668</v>
@@ -3915,7 +3918,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.962</v>
@@ -3945,10 +3948,10 @@
         <v>232275.6519</v>
       </c>
       <c r="K21" s="1">
-        <v>160219.9017</v>
+        <v>160255.829</v>
       </c>
       <c r="L21" s="1">
-        <v>12.2591</v>
+        <v>12.2618</v>
       </c>
       <c r="M21" s="1">
         <v>0.5</v>
@@ -3968,7 +3971,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>12.2659</v>
@@ -3998,10 +4001,10 @@
         <v>223789.355</v>
       </c>
       <c r="K22" s="1">
-        <v>178180.3974</v>
+        <v>178216.3246</v>
       </c>
       <c r="L22" s="1">
-        <v>12.4139</v>
+        <v>12.4164</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -4021,7 +4024,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>12.4103</v>
@@ -4051,10 +4054,10 @@
         <v>236123.8165</v>
       </c>
       <c r="K23" s="1">
-        <v>212613.7494</v>
+        <v>212649.6766</v>
       </c>
       <c r="L23" s="1">
-        <v>12.3938</v>
+        <v>12.3959</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -4074,7 +4077,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>12.3976</v>
@@ -4104,10 +4107,10 @@
         <v>245868.0222</v>
       </c>
       <c r="K24" s="1">
-        <v>220171.9362</v>
+        <v>220207.8634</v>
       </c>
       <c r="L24" s="1">
-        <v>12.3952</v>
+        <v>12.3972</v>
       </c>
       <c r="M24" s="1">
         <v>0.5</v>
@@ -4127,7 +4130,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>12.9013</v>
@@ -4157,10 +4160,10 @@
         <v>273165.0202</v>
       </c>
       <c r="K25" s="1">
-        <v>230438.5148</v>
+        <v>230474.4421</v>
       </c>
       <c r="L25" s="1">
-        <v>12.3964</v>
+        <v>12.3983</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -4180,7 +4183,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.3527</v>
@@ -4210,10 +4213,10 @@
         <v>291559.733</v>
       </c>
       <c r="K26" s="1">
-        <v>231096.3734</v>
+        <v>231132.3006</v>
       </c>
       <c r="L26" s="1">
-        <v>12.3978</v>
+        <v>12.3998</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -4233,7 +4236,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.8804</v>
@@ -4263,10 +4266,10 @@
         <v>311432.4824</v>
       </c>
       <c r="K27" s="1">
-        <v>232705.4638</v>
+        <v>232741.391</v>
       </c>
       <c r="L27" s="1">
-        <v>12.4041</v>
+        <v>12.406</v>
       </c>
       <c r="M27" s="1">
         <v>0.5</v>
@@ -4286,7 +4289,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>14.6268</v>
@@ -4316,10 +4319,10 @@
         <v>343857.0752</v>
       </c>
       <c r="K28" s="1">
-        <v>232826.7652</v>
+        <v>232862.6924</v>
       </c>
       <c r="L28" s="1">
-        <v>12.4048</v>
+        <v>12.4067</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -4339,7 +4342,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>15.3636</v>
@@ -4369,10 +4372,10 @@
         <v>367457.3246</v>
       </c>
       <c r="K29" s="1">
-        <v>228827.8689</v>
+        <v>228879.7578</v>
       </c>
       <c r="L29" s="1">
-        <v>12.3716</v>
+        <v>12.3744</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -4392,7 +4395,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>13.8711</v>
@@ -4422,10 +4425,10 @@
         <v>350256.9907</v>
       </c>
       <c r="K30" s="1">
-        <v>225213.179</v>
+        <v>225279.5084</v>
       </c>
       <c r="L30" s="1">
-        <v>12.3328</v>
+        <v>12.3364</v>
       </c>
       <c r="M30" s="1">
         <v>0.5</v>
@@ -4445,7 +4448,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>14.1252</v>
@@ -4475,10 +4478,10 @@
         <v>373638.0409</v>
       </c>
       <c r="K31" s="1">
-        <v>262562.654</v>
+        <v>262628.9834</v>
       </c>
       <c r="L31" s="1">
-        <v>12.5337</v>
+        <v>12.5368</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -4498,7 +4501,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>14.1934</v>
@@ -4528,10 +4531,10 @@
         <v>385066.3704</v>
       </c>
       <c r="K32" s="1">
-        <v>267268.8732</v>
+        <v>267335.2026</v>
       </c>
       <c r="L32" s="1">
-        <v>12.559</v>
+        <v>12.5621</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -4551,7 +4554,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>14.1176</v>
@@ -4581,10 +4584,10 @@
         <v>393377.5738</v>
       </c>
       <c r="K33" s="1">
-        <v>275856.0529</v>
+        <v>275922.3823</v>
       </c>
       <c r="L33" s="1">
-        <v>12.6048</v>
+        <v>12.6079</v>
       </c>
       <c r="M33" s="1">
         <v>0.5</v>
@@ -4604,7 +4607,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>15.3311</v>
@@ -4634,10 +4637,10 @@
         <v>440683.4204</v>
       </c>
       <c r="K34" s="1">
-        <v>287557.2892</v>
+        <v>287623.6186</v>
       </c>
       <c r="L34" s="1">
-        <v>12.661</v>
+        <v>12.6639</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -4657,7 +4660,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>15.3637</v>
@@ -4687,10 +4690,10 @@
         <v>451386.5393</v>
       </c>
       <c r="K35" s="1">
-        <v>269982.6798</v>
+        <v>270119.2536</v>
       </c>
       <c r="L35" s="1">
-        <v>12.5177</v>
+        <v>12.524</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -4710,7 +4713,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>14.6447</v>
@@ -4740,10 +4743,10 @@
         <v>445436.904</v>
       </c>
       <c r="K36" s="1">
-        <v>279316.8503</v>
+        <v>279453.4241</v>
       </c>
       <c r="L36" s="1">
-        <v>12.5964</v>
+        <v>12.6025</v>
       </c>
       <c r="M36" s="1">
         <v>1</v>
@@ -4763,7 +4766,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>15.486</v>
@@ -4793,10 +4796,10 @@
         <v>495396.1542</v>
       </c>
       <c r="K37" s="1">
-        <v>305333.091</v>
+        <v>305469.6648</v>
       </c>
       <c r="L37" s="1">
-        <v>12.7502</v>
+        <v>12.7559</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -4816,7 +4819,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>16.1958</v>
@@ -4846,10 +4849,10 @@
         <v>521897.2218</v>
       </c>
       <c r="K38" s="1">
-        <v>295186.3591</v>
+        <v>295363.4754</v>
       </c>
       <c r="L38" s="1">
-        <v>12.6725</v>
+        <v>12.6801</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -4954,7 +4957,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.0875</v>
@@ -5001,7 +5004,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-14</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.1692</v>
@@ -5054,7 +5057,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-13</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>11.0872</v>
@@ -5107,7 +5110,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-12</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>11.0976</v>
@@ -5160,7 +5163,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-11</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.8505</v>
@@ -5213,7 +5216,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-10</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>11.8576</v>
@@ -5266,7 +5269,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-9</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.5699</v>
@@ -5319,7 +5322,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.5994</v>
@@ -5372,7 +5375,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-7</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>14.6663</v>
@@ -5425,7 +5428,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-6</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>14.701</v>
@@ -5478,7 +5481,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-5</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.8109</v>
@@ -5531,7 +5534,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-4</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.9322</v>
@@ -5584,7 +5587,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-3</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.5846</v>
@@ -5637,7 +5640,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-2</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>12.2867</v>
@@ -5690,7 +5693,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.0645</v>
@@ -5743,7 +5746,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.8083</v>
@@ -5796,7 +5799,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.5636</v>
@@ -5849,7 +5852,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.1788</v>
@@ -5902,7 +5905,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>14.5668</v>
@@ -5955,7 +5958,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.962</v>
@@ -5985,10 +5988,10 @@
         <v>233287.6658</v>
       </c>
       <c r="K21" s="1">
-        <v>168173.2406</v>
+        <v>168208.7201</v>
       </c>
       <c r="L21" s="1">
-        <v>12.2982</v>
+        <v>12.3008</v>
       </c>
       <c r="M21" s="1">
         <v>0.5</v>
@@ -6008,7 +6011,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>12.2659</v>
@@ -6038,10 +6041,10 @@
         <v>223878.8043</v>
       </c>
       <c r="K22" s="1">
-        <v>187498.4302</v>
+        <v>187533.9097</v>
       </c>
       <c r="L22" s="1">
-        <v>12.4534</v>
+        <v>12.4558</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -6061,7 +6064,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>12.4103</v>
@@ -6091,10 +6094,10 @@
         <v>236331.8924</v>
       </c>
       <c r="K23" s="1">
-        <v>224179.1353</v>
+        <v>224214.6149</v>
       </c>
       <c r="L23" s="1">
-        <v>12.4265</v>
+        <v>12.4285</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -6114,7 +6117,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>12.3976</v>
@@ -6144,10 +6147,10 @@
         <v>246059.9316</v>
       </c>
       <c r="K24" s="1">
-        <v>232717.8368</v>
+        <v>232753.3163</v>
       </c>
       <c r="L24" s="1">
-        <v>12.4268</v>
+        <v>12.4287</v>
       </c>
       <c r="M24" s="1">
         <v>0.5</v>
@@ -6167,7 +6170,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>12.9013</v>
@@ -6197,10 +6200,10 @@
         <v>274318.6113</v>
       </c>
       <c r="K25" s="1">
-        <v>244161.0828</v>
+        <v>244196.5623</v>
       </c>
       <c r="L25" s="1">
-        <v>12.4266</v>
+        <v>12.4284</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -6220,7 +6223,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.3527</v>
@@ -6250,10 +6253,10 @@
         <v>293211.6071</v>
       </c>
       <c r="K26" s="1">
-        <v>245504.795</v>
+        <v>245540.2745</v>
       </c>
       <c r="L26" s="1">
-        <v>12.4292</v>
+        <v>12.431</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -6273,7 +6276,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.8804</v>
@@ -6303,10 +6306,10 @@
         <v>313697.3741</v>
       </c>
       <c r="K27" s="1">
-        <v>247887.5509</v>
+        <v>247923.0304</v>
       </c>
       <c r="L27" s="1">
-        <v>12.4377</v>
+        <v>12.4395</v>
       </c>
       <c r="M27" s="1">
         <v>0.5</v>
@@ -6326,7 +6329,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>14.6268</v>
@@ -6356,10 +6359,10 @@
         <v>347555.519</v>
       </c>
       <c r="K28" s="1">
-        <v>248723.5538</v>
+        <v>248759.0333</v>
       </c>
       <c r="L28" s="1">
-        <v>12.4421</v>
+        <v>12.4439</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -6379,7 +6382,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>15.3636</v>
@@ -6409,10 +6412,10 @@
         <v>372077.7495</v>
       </c>
       <c r="K29" s="1">
-        <v>245201.2371</v>
+        <v>245250.7759</v>
       </c>
       <c r="L29" s="1">
-        <v>12.4152</v>
+        <v>12.4177</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -6432,7 +6435,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>13.8711</v>
@@ -6462,10 +6465,10 @@
         <v>352959.285</v>
       </c>
       <c r="K30" s="1">
-        <v>242108.1684</v>
+        <v>242170.064</v>
       </c>
       <c r="L30" s="1">
-        <v>12.3846</v>
+        <v>12.3878</v>
       </c>
       <c r="M30" s="1">
         <v>0.5</v>
@@ -6485,7 +6488,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>14.1252</v>
@@ -6515,10 +6518,10 @@
         <v>377295.3043</v>
       </c>
       <c r="K31" s="1">
-        <v>282888.1987</v>
+        <v>282950.0942</v>
       </c>
       <c r="L31" s="1">
-        <v>12.5822</v>
+        <v>12.585</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -6538,7 +6541,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>14.1934</v>
@@ -6568,10 +6571,10 @@
         <v>388828.938</v>
       </c>
       <c r="K32" s="1">
-        <v>288766.143</v>
+        <v>288828.0386</v>
       </c>
       <c r="L32" s="1">
-        <v>12.6107</v>
+        <v>12.6134</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -6591,7 +6594,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>14.1176</v>
@@ -6621,10 +6624,10 @@
         <v>397003.8096</v>
       </c>
       <c r="K33" s="1">
-        <v>298863.3728</v>
+        <v>298925.2684</v>
       </c>
       <c r="L33" s="1">
-        <v>12.6592</v>
+        <v>12.6618</v>
       </c>
       <c r="M33" s="1">
         <v>0.5</v>
@@ -6644,7 +6647,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>15.3311</v>
@@ -6674,10 +6677,10 @@
         <v>447320.1705</v>
       </c>
       <c r="K34" s="1">
-        <v>312374.2085</v>
+        <v>312436.1041</v>
       </c>
       <c r="L34" s="1">
-        <v>12.717</v>
+        <v>12.7195</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -6697,7 +6700,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>15.3637</v>
@@ -6727,10 +6730,10 @@
         <v>458082.5573</v>
       </c>
       <c r="K35" s="1">
-        <v>294285.8349</v>
+        <v>294420.0284</v>
       </c>
       <c r="L35" s="1">
-        <v>12.5838</v>
+        <v>12.5895</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -6750,7 +6753,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>14.6447</v>
@@ -6780,10 +6783,10 @@
         <v>450740.4045</v>
       </c>
       <c r="K36" s="1">
-        <v>305356.759</v>
+        <v>305490.9525</v>
       </c>
       <c r="L36" s="1">
-        <v>12.6676</v>
+        <v>12.6732</v>
       </c>
       <c r="M36" s="1">
         <v>1</v>
@@ -6803,7 +6806,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>15.486</v>
@@ -6833,10 +6836,10 @@
         <v>504231.3582</v>
       </c>
       <c r="K37" s="1">
-        <v>334619.5729</v>
+        <v>334753.7663</v>
       </c>
       <c r="L37" s="1">
-        <v>12.8209</v>
+        <v>12.8261</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -6856,7 +6859,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>16.1958</v>
@@ -6886,10 +6889,10 @@
         <v>532261.5729</v>
       </c>
       <c r="K38" s="1">
-        <v>324573.6106</v>
+        <v>324747.9439</v>
       </c>
       <c r="L38" s="1">
-        <v>12.7524</v>
+        <v>12.7592</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -6994,7 +6997,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.0875</v>
@@ -7041,7 +7044,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-14</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.1692</v>
@@ -7094,7 +7097,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-13</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>11.0872</v>
@@ -7147,7 +7150,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-12</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>11.0976</v>
@@ -7200,7 +7203,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-11</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.8505</v>
@@ -7253,7 +7256,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-10</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>11.8576</v>
@@ -7306,7 +7309,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-9</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.5699</v>
@@ -7359,7 +7362,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.5994</v>
@@ -7412,7 +7415,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-7</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>14.6663</v>
@@ -7465,7 +7468,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-6</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>14.701</v>
@@ -7518,7 +7521,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-5</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.8109</v>
@@ -7571,7 +7574,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-4</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.9322</v>
@@ -7624,7 +7627,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-3</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.5846</v>
@@ -7677,7 +7680,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-2</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>12.2867</v>
@@ -7730,7 +7733,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.0645</v>
@@ -7783,7 +7786,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.8083</v>
@@ -7836,7 +7839,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.5636</v>
@@ -7889,7 +7892,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.1788</v>
@@ -7942,7 +7945,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>14.5668</v>
@@ -7995,7 +7998,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.962</v>
@@ -8025,10 +8028,10 @@
         <v>234338.8876</v>
       </c>
       <c r="K21" s="1">
-        <v>176600.1872</v>
+        <v>176635.0689</v>
       </c>
       <c r="L21" s="1">
-        <v>12.3366</v>
+        <v>12.3391</v>
       </c>
       <c r="M21" s="1">
         <v>0.5</v>
@@ -8048,7 +8051,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>12.2659</v>
@@ -8078,10 +8081,10 @@
         <v>223949.105</v>
       </c>
       <c r="K22" s="1">
-        <v>197405.0145</v>
+        <v>197439.8962</v>
       </c>
       <c r="L22" s="1">
-        <v>12.4922</v>
+        <v>12.4944</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -8101,7 +8104,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>12.4103</v>
@@ -8131,10 +8134,10 @@
         <v>236528.4845</v>
       </c>
       <c r="K23" s="1">
-        <v>236511.6014</v>
+        <v>236546.4831</v>
       </c>
       <c r="L23" s="1">
-        <v>12.4584</v>
+        <v>12.4602</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -8154,7 +8157,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>12.3976</v>
@@ -8184,10 +8187,10 @@
         <v>246239.0791</v>
       </c>
       <c r="K24" s="1">
-        <v>246138.3878</v>
+        <v>246173.2695</v>
       </c>
       <c r="L24" s="1">
-        <v>12.4575</v>
+        <v>12.4593</v>
       </c>
       <c r="M24" s="1">
         <v>0.5</v>
@@ -8207,7 +8210,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>12.9013</v>
@@ -8237,10 +8240,10 @@
         <v>275492.2235</v>
       </c>
       <c r="K25" s="1">
-        <v>257912.537</v>
+        <v>257947.4187</v>
       </c>
       <c r="L25" s="1">
-        <v>12.4559</v>
+        <v>12.4576</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -8260,7 +8263,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.3527</v>
@@ -8290,10 +8293,10 @@
         <v>294917.3682</v>
       </c>
       <c r="K26" s="1">
-        <v>261058.7593</v>
+        <v>261093.641</v>
       </c>
       <c r="L26" s="1">
-        <v>12.4614</v>
+        <v>12.463</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -8313,7 +8316,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.8804</v>
@@ -8343,10 +8346,10 @@
         <v>316065.0718</v>
       </c>
       <c r="K27" s="1">
-        <v>264331.4648</v>
+        <v>264366.3465</v>
       </c>
       <c r="L27" s="1">
-        <v>12.472</v>
+        <v>12.4736</v>
       </c>
       <c r="M27" s="1">
         <v>0.5</v>
@@ -8366,7 +8369,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>14.6268</v>
@@ -8396,10 +8399,10 @@
         <v>351474.7578</v>
       </c>
       <c r="K28" s="1">
-        <v>266001.6715</v>
+        <v>266036.5532</v>
       </c>
       <c r="L28" s="1">
-        <v>12.4801</v>
+        <v>12.4817</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -8419,7 +8422,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>15.3636</v>
@@ -8449,10 +8452,10 @@
         <v>376999.6378</v>
       </c>
       <c r="K29" s="1">
-        <v>263063.4693</v>
+        <v>263110.0789</v>
       </c>
       <c r="L29" s="1">
-        <v>12.4594</v>
+        <v>12.4616</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -8472,7 +8475,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>13.8711</v>
@@ -8502,10 +8505,10 @@
         <v>355788.1321</v>
       </c>
       <c r="K30" s="1">
-        <v>260610.8801</v>
+        <v>260667.2877</v>
       </c>
       <c r="L30" s="1">
-        <v>12.4371</v>
+        <v>12.4398</v>
       </c>
       <c r="M30" s="1">
         <v>0.5</v>
@@ -8525,7 +8528,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>14.1252</v>
@@ -8555,10 +8558,10 @@
         <v>381167.3298</v>
       </c>
       <c r="K31" s="1">
-        <v>305213.3988</v>
+        <v>305269.8063</v>
       </c>
       <c r="L31" s="1">
-        <v>12.6312</v>
+        <v>12.6336</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -8578,7 +8581,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>14.1934</v>
@@ -8608,10 +8611,10 @@
         <v>392816.3299</v>
       </c>
       <c r="K32" s="1">
-        <v>312459.5206</v>
+        <v>312515.9281</v>
       </c>
       <c r="L32" s="1">
-        <v>12.6628</v>
+        <v>12.6651</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -8631,7 +8634,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>14.1176</v>
@@ -8661,10 +8664,10 @@
         <v>400840.5711</v>
       </c>
       <c r="K33" s="1">
-        <v>324307.4023</v>
+        <v>324363.8099</v>
       </c>
       <c r="L33" s="1">
-        <v>12.7137</v>
+        <v>12.7159</v>
       </c>
       <c r="M33" s="1">
         <v>0.5</v>
@@ -8684,7 +8687,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>15.3311</v>
@@ -8714,10 +8717,10 @@
         <v>454483.6353</v>
       </c>
       <c r="K34" s="1">
-        <v>339911.4403</v>
+        <v>339967.8478</v>
       </c>
       <c r="L34" s="1">
-        <v>12.7731</v>
+        <v>12.7752</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -8737,7 +8740,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>15.3637</v>
@@ -8767,10 +8770,10 @@
         <v>465311.803</v>
       </c>
       <c r="K35" s="1">
-        <v>321360.1198</v>
+        <v>321490.6756</v>
       </c>
       <c r="L35" s="1">
-        <v>12.65</v>
+        <v>12.6552</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -8790,7 +8793,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>14.6447</v>
@@ -8820,10 +8823,10 @@
         <v>456418.4124</v>
       </c>
       <c r="K36" s="1">
-        <v>334471.231</v>
+        <v>334601.7868</v>
       </c>
       <c r="L36" s="1">
-        <v>12.739</v>
+        <v>12.744</v>
       </c>
       <c r="M36" s="1">
         <v>1</v>
@@ -8843,7 +8846,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>15.486</v>
@@ -8873,10 +8876,10 @@
         <v>513848.9348</v>
       </c>
       <c r="K37" s="1">
-        <v>367469.7917</v>
+        <v>367600.3476</v>
       </c>
       <c r="L37" s="1">
-        <v>12.8917</v>
+        <v>12.8963</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -8896,7 +8899,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>16.1958</v>
@@ -8926,10 +8929,10 @@
         <v>543593.7816</v>
       </c>
       <c r="K38" s="1">
-        <v>357664.3723</v>
+        <v>357834.1069</v>
       </c>
       <c r="L38" s="1">
-        <v>12.8322</v>
+        <v>12.8383</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -9034,7 +9037,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.0875</v>
@@ -9081,7 +9084,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-14</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.1692</v>
@@ -9134,7 +9137,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-13</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>11.0872</v>
@@ -9187,7 +9190,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-12</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>11.0976</v>
@@ -9240,7 +9243,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-11</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.8505</v>
@@ -9293,7 +9296,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-10</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>11.8576</v>
@@ -9346,7 +9349,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-9</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.5699</v>
@@ -9399,7 +9402,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.5994</v>
@@ -9452,7 +9455,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-7</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>14.6663</v>
@@ -9505,7 +9508,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-6</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>14.701</v>
@@ -9558,7 +9561,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-5</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.8109</v>
@@ -9611,7 +9614,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-4</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.9322</v>
@@ -9664,7 +9667,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-3</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.5846</v>
@@ -9717,7 +9720,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-2</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>12.2867</v>
@@ -9770,7 +9773,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.0645</v>
@@ -9823,7 +9826,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.8083</v>
@@ -9876,7 +9879,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.5636</v>
@@ -9929,7 +9932,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.1788</v>
@@ -9982,7 +9985,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>14.5668</v>
@@ -10035,7 +10038,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.962</v>
@@ -10065,10 +10068,10 @@
         <v>235193.0445</v>
       </c>
       <c r="K21" s="1">
-        <v>185768.3203</v>
+        <v>185802.4372</v>
       </c>
       <c r="L21" s="1">
-        <v>12.3901</v>
+        <v>12.3924</v>
       </c>
       <c r="M21" s="1">
         <v>0.5</v>
@@ -10088,7 +10091,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>12.2659</v>
@@ -10118,10 +10121,10 @@
         <v>223760.0702</v>
       </c>
       <c r="K22" s="1">
-        <v>208177.2846</v>
+        <v>208211.4015</v>
       </c>
       <c r="L22" s="1">
-        <v>12.5446</v>
+        <v>12.5466</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -10141,7 +10144,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>12.4103</v>
@@ -10171,10 +10174,10 @@
         <v>236388.0433</v>
       </c>
       <c r="K23" s="1">
-        <v>238791.0744</v>
+        <v>238825.1913</v>
       </c>
       <c r="L23" s="1">
-        <v>12.5114</v>
+        <v>12.5132</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -10194,7 +10197,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>12.3976</v>
@@ -10224,10 +10227,10 @@
         <v>246095.4726</v>
       </c>
       <c r="K24" s="1">
-        <v>248791.0744</v>
+        <v>248825.1913</v>
       </c>
       <c r="L24" s="1">
-        <v>12.5083</v>
+        <v>12.51</v>
       </c>
       <c r="M24" s="1">
         <v>0.5</v>
@@ -10247,7 +10250,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>12.9013</v>
@@ -10277,10 +10280,10 @@
         <v>275409.457</v>
       </c>
       <c r="K25" s="1">
-        <v>258791.0744</v>
+        <v>258825.1913</v>
       </c>
       <c r="L25" s="1">
-        <v>12.505</v>
+        <v>12.5066</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -10300,7 +10303,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.3527</v>
@@ -10330,10 +10333,10 @@
         <v>295317.1883</v>
       </c>
       <c r="K26" s="1">
-        <v>277741.5919</v>
+        <v>277775.7088</v>
       </c>
       <c r="L26" s="1">
-        <v>12.5329</v>
+        <v>12.5345</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -10353,7 +10356,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.8804</v>
@@ -10383,10 +10386,10 @@
         <v>317175.7831</v>
       </c>
       <c r="K27" s="1">
-        <v>283075.9701</v>
+        <v>283110.087</v>
       </c>
       <c r="L27" s="1">
-        <v>12.5479</v>
+        <v>12.5494</v>
       </c>
       <c r="M27" s="1">
         <v>0.5</v>
@@ -10406,7 +10409,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>14.6268</v>
@@ -10436,10 +10439,10 @@
         <v>354265.4586</v>
       </c>
       <c r="K28" s="1">
-        <v>285716.0526</v>
+        <v>285750.1695</v>
       </c>
       <c r="L28" s="1">
-        <v>12.5592</v>
+        <v>12.5607</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -10459,7 +10462,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>15.3636</v>
@@ -10489,10 +10492,10 @@
         <v>380881.2754</v>
       </c>
       <c r="K29" s="1">
-        <v>283485.8705</v>
+        <v>283528.8891</v>
       </c>
       <c r="L29" s="1">
-        <v>12.5451</v>
+        <v>12.547</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -10512,7 +10515,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>13.8711</v>
@@ -10542,10 +10545,10 @@
         <v>357384.5706</v>
       </c>
       <c r="K30" s="1">
-        <v>281811.3659</v>
+        <v>281861.0741</v>
       </c>
       <c r="L30" s="1">
-        <v>12.5313</v>
+        <v>12.5335</v>
       </c>
       <c r="M30" s="1">
         <v>0.5</v>
@@ -10565,7 +10568,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>14.1252</v>
@@ -10595,10 +10598,10 @@
         <v>383903.9746</v>
       </c>
       <c r="K31" s="1">
-        <v>330675.4126</v>
+        <v>330725.1208</v>
       </c>
       <c r="L31" s="1">
-        <v>12.7162</v>
+        <v>12.7181</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -10618,7 +10621,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>14.1934</v>
@@ -10648,10 +10651,10 @@
         <v>395679.4455</v>
       </c>
       <c r="K32" s="1">
-        <v>339515.8345</v>
+        <v>339565.5428</v>
       </c>
       <c r="L32" s="1">
-        <v>12.7499</v>
+        <v>12.7518</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -10671,7 +10674,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>14.1176</v>
@@ -10701,10 +10704,10 @@
         <v>403537.1292</v>
       </c>
       <c r="K33" s="1">
-        <v>353391.2921</v>
+        <v>353441.0003</v>
       </c>
       <c r="L33" s="1">
-        <v>12.8019</v>
+        <v>12.8037</v>
       </c>
       <c r="M33" s="1">
         <v>0.5</v>
@@ -10724,7 +10727,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>15.3311</v>
@@ -10754,10 +10757,10 @@
         <v>460859.2077</v>
       </c>
       <c r="K34" s="1">
-        <v>371415.4459</v>
+        <v>371465.1542</v>
       </c>
       <c r="L34" s="1">
-        <v>12.8612</v>
+        <v>12.863</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -10777,7 +10780,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>15.3637</v>
@@ -10807,10 +10810,10 @@
         <v>471760.4487</v>
       </c>
       <c r="K35" s="1">
-        <v>352470.9216</v>
+        <v>352596.3498</v>
       </c>
       <c r="L35" s="1">
-        <v>12.7497</v>
+        <v>12.7542</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -10830,7 +10833,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>14.6447</v>
@@ -10860,10 +10863,10 @@
         <v>461137.3715</v>
       </c>
       <c r="K36" s="1">
-        <v>367976.4159</v>
+        <v>368101.844</v>
       </c>
       <c r="L36" s="1">
-        <v>12.8427</v>
+        <v>12.847</v>
       </c>
       <c r="M36" s="1">
         <v>1</v>
@@ -10883,7 +10886,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>15.486</v>
@@ -10913,10 +10916,10 @@
         <v>522966.7377</v>
       </c>
       <c r="K37" s="1">
-        <v>405276.4696</v>
+        <v>405401.8978</v>
       </c>
       <c r="L37" s="1">
-        <v>12.9919</v>
+        <v>12.9959</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -10936,7 +10939,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>16.1958</v>
@@ -10966,10 +10969,10 @@
         <v>554636.2922</v>
       </c>
       <c r="K38" s="1">
-        <v>395886.8181</v>
+        <v>396049.7637</v>
       </c>
       <c r="L38" s="1">
-        <v>12.9419</v>
+        <v>12.9473</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -10994,13 +10997,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
@@ -11045,16 +11048,16 @@
         <v>13.4794</v>
       </c>
       <c r="D3" s="1">
-        <v>12.6725</v>
+        <v>12.6801</v>
       </c>
       <c r="E3" s="1">
-        <v>12.7524</v>
+        <v>12.7592</v>
       </c>
       <c r="F3" s="1">
-        <v>12.8322</v>
+        <v>12.8383</v>
       </c>
       <c r="G3" s="1">
-        <v>12.9419</v>
+        <v>12.9473</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -11164,6 +11167,26 @@
       </c>
       <c r="G8" s="1">
         <v>96256.80929999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.1991</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.767</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.639</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.5191</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.4004</v>
       </c>
     </row>
   </sheetData>
